--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="402">
   <si>
     <t>TOPIC</t>
   </si>
@@ -315,9 +316,6 @@
     <t>https://leetcode.com/problems/valid-parentheses/</t>
   </si>
   <si>
-    <t>Valid Parenthesis</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/decode-string/</t>
   </si>
   <si>
@@ -610,6 +608,621 @@
   </si>
   <si>
     <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>BACKTRACKING</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subsets-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combinations/</t>
+  </si>
+  <si>
+    <t>subsets</t>
+  </si>
+  <si>
+    <t>subsets 2</t>
+  </si>
+  <si>
+    <t>combinations</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutations/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutations-ii/</t>
+  </si>
+  <si>
+    <t>Permistations (Order Matters)</t>
+  </si>
+  <si>
+    <t>Subsets / Combinations (Order doesn't matter)</t>
+  </si>
+  <si>
+    <t>permutations</t>
+  </si>
+  <si>
+    <t>permutations 2</t>
+  </si>
+  <si>
+    <t>Combination Sum (Hybrid)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum-iii/</t>
+  </si>
+  <si>
+    <t>Combination sum</t>
+  </si>
+  <si>
+    <t>combination sum 2</t>
+  </si>
+  <si>
+    <t>combination sum 3</t>
+  </si>
+  <si>
+    <t>Grid / Matrix Traversal (Pathfinding)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-search/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-with-maximum-gold/</t>
+  </si>
+  <si>
+    <t>Partitioning Problems</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-partitioning/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/restore-ip-addresses/</t>
+  </si>
+  <si>
+    <t>Constraint Satisfaction Problems</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/n-queens/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sudoku-solver/</t>
+  </si>
+  <si>
+    <t>word search</t>
+  </si>
+  <si>
+    <t>word search 2</t>
+  </si>
+  <si>
+    <t>word search 3</t>
+  </si>
+  <si>
+    <t>palindrome partitioning</t>
+  </si>
+  <si>
+    <t>restore ip address</t>
+  </si>
+  <si>
+    <t>nQueens</t>
+  </si>
+  <si>
+    <t>Sudoku</t>
+  </si>
+  <si>
+    <t>Simulation &amp; State Management</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-browser-history/</t>
+  </si>
+  <si>
+    <t>Simple Stack Implementation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/min-stack/</t>
+  </si>
+  <si>
+    <t>Gathering and Post-Processing Data</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-k-sorted-lists/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-duplicates-in-an-array/</t>
+  </si>
+  <si>
+    <t>Baseball game</t>
+  </si>
+  <si>
+    <t>crawler log folder</t>
+  </si>
+  <si>
+    <t>design browser history</t>
+  </si>
+  <si>
+    <t>simplify pat</t>
+  </si>
+  <si>
+    <t>find all duplicates in an array</t>
+  </si>
+  <si>
+    <t>ARRAYLIST</t>
+  </si>
+  <si>
+    <t>LINKEDLIST</t>
+  </si>
+  <si>
+    <t>Fast &amp; Slow Pointers (Floyd's Tortoise and Hare)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/middle-of-the-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-nth-node-from-end-of-list/</t>
+  </si>
+  <si>
+    <t>Classic Pointer Manipulation (Reversal &amp; Reordering)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorder-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/odd-even-linked-list/</t>
+  </si>
+  <si>
+    <t>The Dummy Head / Sentinel Node Trick</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-two-sorted-lists/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-two-numbers/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/</t>
+  </si>
+  <si>
+    <t>Merging &amp; Sorting</t>
+  </si>
+  <si>
+    <t>merge k sorted arrays</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-list/</t>
+  </si>
+  <si>
+    <t>Intersection &amp; Reference-Based Problems</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-linked-lists/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/copy-list-with-random-pointer/</t>
+  </si>
+  <si>
+    <t>DOUBLY LINKEDLIST</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lru-cache/</t>
+  </si>
+  <si>
+    <t>Implementing High-Performance Caches &amp; Queues</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lfu-cache/</t>
+  </si>
+  <si>
+    <t>Bidirectional Sequence Management</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-a-multilevel-doubly-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-linked-list/</t>
+  </si>
+  <si>
+    <t>Round-Robin &amp; Looping Logic</t>
+  </si>
+  <si>
+    <t>CIRCULAR LINKEDLIST</t>
+  </si>
+  <si>
+    <t>Find Winner of Circular Game (Josephus Problem)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-into-a-sorted-circular-linked-list/</t>
+  </si>
+  <si>
+    <t>Cycle Detection &amp; Entry Point Finding</t>
+  </si>
+  <si>
+    <t>Matching &amp; Validation (Balanced Parentheses)</t>
+  </si>
+  <si>
+    <t>STACK</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-outermost-parentheses/</t>
+  </si>
+  <si>
+    <t>Monotonic Stack (Next/Previous Greater/Smaller Element)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-greater-element-i/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-greater-element-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/daily-temperatures/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-rectangle-in-histogram/</t>
+  </si>
+  <si>
+    <t>Expression Evaluation &amp; Parsing</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/evaluate-reverse-polish-notation/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/basic-calculator/</t>
+  </si>
+  <si>
+    <t>Simulation &amp; Path Management</t>
+  </si>
+  <si>
+    <t>Design a Specialized Stack</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-a-stack-with-increment-operation/</t>
+  </si>
+  <si>
+    <t>QUEUE</t>
+  </si>
+  <si>
+    <t>BFS on a Grid/Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotting-oranges/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/01-matrix/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-islands/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-path-in-binary-matrix/</t>
+  </si>
+  <si>
+    <t>BFS on a Tree (Level Order Traversal)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>Sequential Processing &amp; Simulation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-recent-calls/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/dota2-senate/</t>
+  </si>
+  <si>
+    <t>Design Problems (Using Queues)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-stack-using-queues/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-queue-using-stacks/</t>
+  </si>
+  <si>
+    <t>Sliding Window Minimum/Maximum (using a Deque)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sliding-window-maximum/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QUEUE</t>
+  </si>
+  <si>
+    <t>DEQUEUE</t>
+  </si>
+  <si>
+    <t>Monotonic Deque for Sliding Window Min/Max</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit/</t>
+  </si>
+  <si>
+    <t>0-1 Breadth-First Search (0-1 BFS)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-cost-to-make-at-least-one-valid-path-in-a-grid/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-path-in-a-grid-with-obstacles-elimination/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-obstacle-removal-to-reach-corner/</t>
+  </si>
+  <si>
+    <t>GREEDY ALGO</t>
+  </si>
+  <si>
+    <t>Interval Scheduling &amp; Partitioning</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/meeting-rooms-ii/</t>
+  </si>
+  <si>
+    <t>Maximizing by Picking Items</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-units-on-a-truck/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/gas-station/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/assign-cookies/</t>
+  </si>
+  <si>
+    <t>Greedy Pathfinding / "Jump" Problems</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game-ii/</t>
+  </si>
+  <si>
+    <t>Partitioning &amp; Slicing</t>
+  </si>
+  <si>
+    <t>Task Scheduling &amp; String Reorganization</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/task-scheduler/</t>
+  </si>
+  <si>
+    <t>BINARY TREE</t>
+  </si>
+  <si>
+    <t>The Foundation: Tree Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>Validation &amp; Properties</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/symmetric-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/balanced-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/same-tree/</t>
+  </si>
+  <si>
+    <t>Path Sum Problems</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum-iii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor (LCA)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>Tree Construction from Traversals</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>Serialization and Deserialization</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/serialize-and-deserialize-binary-tree/</t>
+  </si>
+  <si>
+    <t>Tree Views &amp; Level-Based Problems</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-right-side-view/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subtree-of-another-tree/</t>
+  </si>
+  <si>
+    <t>BINART SEARCCH TREES</t>
+  </si>
+  <si>
+    <t>Search, Insertion, and Deletion</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-into-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-node-in-a-bst/</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Finding K-th Smallest / Largest Element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-element-in-a-bst/</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in a BST</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Finding Specific Relationship Nodes (LCA, Successor)</t>
+  </si>
+  <si>
+    <t>Inorder Successor in BST</t>
+  </si>
+  <si>
+    <t>Construction, Conversion, and "Fixing"</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/balance-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/recover-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-bst-to-greater-tree/</t>
+  </si>
+  <si>
+    <t>Top K Elements (Largest, Smallest, Frequent)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-largest-element-in-an-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/top-k-frequent-elements/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/k-closest-points-to-origin/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-k-pairs-with-smallest-sums/</t>
+  </si>
+  <si>
+    <t>Merging K Sorted Data Structures</t>
+  </si>
+  <si>
+    <t>Finding the Median (Two Heaps Pattern)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-median-from-data-stream/</t>
+  </si>
+  <si>
+    <t>Greedy / Scheduling Problems</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/ipo/</t>
+  </si>
+  <si>
+    <t>PRIORTIY QUEUES/HEAPS</t>
+  </si>
+  <si>
+    <t>HASHING</t>
+  </si>
+  <si>
+    <t>Frequency Counting &amp; Existence Checks</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/ransom-note/</t>
+  </si>
+  <si>
+    <t>The "Two-Sum" Pattern &amp; Its Variations</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/4sum-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contiguous-array/</t>
+  </si>
+  <si>
+    <t>Grouping and Categorization</t>
+  </si>
+  <si>
+    <t>Subarray / Substring Problems (Combined with Prefix Sums)</t>
+  </si>
+  <si>
+    <t>middle of the linked list</t>
+  </si>
+  <si>
+    <t>remove from end of linkedlist</t>
+  </si>
+  <si>
+    <t>LinkedList Cycle 2</t>
+  </si>
+  <si>
+    <t>LinkedList Cycle 1</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>DONE;</t>
+  </si>
+  <si>
+    <t>reverse _Linked_list 2</t>
   </si>
 </sst>
 </file>
@@ -678,7 +1291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -718,6 +1331,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1020,20 +1636,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.81640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="20.90625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="53.08984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="44.08984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="69.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="92" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -1586,28 +2202,22 @@
       <c r="A56" s="5">
         <v>39</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>40</v>
       </c>
+      <c r="B57" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="D57" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -1615,10 +2225,10 @@
         <v>41</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -1629,13 +2239,13 @@
         <v>86</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -1643,10 +2253,10 @@
         <v>43</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -1654,10 +2264,10 @@
         <v>44</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -1668,13 +2278,13 @@
         <v>86</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -1682,10 +2292,10 @@
         <v>46</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -1693,10 +2303,10 @@
         <v>47</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -1704,10 +2314,10 @@
         <v>48</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -1715,10 +2325,10 @@
         <v>49</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -1729,13 +2339,13 @@
         <v>86</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -1743,10 +2353,10 @@
         <v>51</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -1754,16 +2364,16 @@
         <v>52</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C75" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -1771,10 +2381,10 @@
         <v>53</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -1782,10 +2392,10 @@
         <v>54</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -1793,10 +2403,10 @@
         <v>55</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -1804,16 +2414,16 @@
         <v>56</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -1821,10 +2431,10 @@
         <v>57</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -1832,10 +2442,10 @@
         <v>58</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -1843,10 +2453,10 @@
         <v>59</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -1854,16 +2464,16 @@
         <v>60</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C85" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -1871,10 +2481,10 @@
         <v>61</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -1882,10 +2492,10 @@
         <v>62</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -1893,16 +2503,16 @@
         <v>63</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -1910,10 +2520,10 @@
         <v>64</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -1921,16 +2531,16 @@
         <v>65</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -1938,10 +2548,10 @@
         <v>66</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -1949,10 +2559,10 @@
         <v>67</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -1960,16 +2570,16 @@
         <v>68</v>
       </c>
       <c r="B98" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -1977,10 +2587,10 @@
         <v>69</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -1988,10 +2598,10 @@
         <v>70</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -1999,10 +2609,10 @@
         <v>71</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -2010,10 +2620,10 @@
         <v>72</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -2021,16 +2631,16 @@
         <v>73</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -2038,10 +2648,10 @@
         <v>74</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -2049,10 +2659,10 @@
         <v>75</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -2060,10 +2670,10 @@
         <v>76</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -2071,16 +2681,16 @@
         <v>77</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -2088,10 +2698,10 @@
         <v>78</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -2099,16 +2709,16 @@
         <v>79</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -2116,10 +2726,10 @@
         <v>80</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -2127,10 +2737,10 @@
         <v>81</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -2138,10 +2748,1561 @@
         <v>82</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="5">
+        <v>83</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="5">
+        <v>84</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="5">
+        <v>85</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="5">
+        <v>86</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="5">
+        <v>87</v>
+      </c>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="5">
+        <v>88</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="5">
+        <v>89</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="5">
+        <v>90</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="5">
+        <v>91</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="5">
+        <v>92</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="5">
+        <v>93</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="5">
+        <v>94</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="5">
+        <v>95</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="5">
+        <v>96</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="5">
+        <v>97</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="5">
+        <v>98</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="5">
+        <v>99</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="5">
+        <v>100</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="5">
+        <v>101</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="5">
+        <v>102</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="5">
+        <v>103</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" s="5">
+        <v>104</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" s="5">
+        <v>105</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153" s="5">
+        <v>106</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" s="5">
+        <v>107</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156" s="5">
+        <v>108</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" s="5">
+        <v>109</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158" s="5">
+        <v>110</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" s="5">
+        <v>111</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="5">
+        <v>112</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="5">
+        <v>113</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="5">
+        <v>114</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="5">
+        <v>115</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="5">
+        <v>116</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="E166" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="5">
+        <v>117</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="5">
+        <v>118</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="5">
+        <v>119</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="5">
+        <v>120</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C174" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="5">
+        <v>121</v>
+      </c>
+      <c r="E175" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="5">
+        <v>122</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="5">
+        <v>123</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="5">
+        <v>124</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="5">
+        <v>125</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="5">
+        <v>126</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="5">
+        <v>127</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="5">
+        <v>128</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="5">
+        <v>129</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" s="5">
+        <v>130</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="5">
+        <v>131</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="5">
+        <v>132</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="5">
+        <v>133</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="5">
+        <v>134</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="5">
+        <v>135</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" s="5">
+        <v>136</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202" s="5">
+        <v>137</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" s="5">
+        <v>138</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" s="5">
+        <v>139</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A209" s="5">
+        <v>140</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210" s="5">
+        <v>141</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211" s="5">
+        <v>142</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212" s="5">
+        <v>143</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214" s="5">
+        <v>144</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215" s="5">
+        <v>145</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216" s="5">
+        <v>146</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218" s="5">
+        <v>147</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219" s="5">
+        <v>148</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220" s="5">
+        <v>149</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222" s="5">
+        <v>150</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223" s="5">
+        <v>151</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225" s="5">
+        <v>152</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A229" s="5">
+        <v>153</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A230" s="5">
+        <v>154</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A232" s="5">
+        <v>155</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A233" s="5">
+        <v>156</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A234" s="5">
+        <v>157</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A238" s="5">
+        <v>158</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239" s="5">
+        <v>159</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240" s="5">
+        <v>160</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A241" s="5">
+        <v>161</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A243" s="5">
+        <v>162</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A244" s="5">
+        <v>163</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A245" s="5">
+        <v>164</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A247" s="5">
+        <v>165</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A248" s="5">
+        <v>166</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A250" s="5">
+        <v>167</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A252" s="5">
+        <v>168</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A253" s="5">
+        <v>169</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A257" s="5">
+        <v>170</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C257" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A258" s="5">
+        <v>171</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A259" s="5">
+        <v>172</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A260" s="5">
+        <v>173</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C261" s="2"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A262" s="5">
+        <v>174</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A263" s="5">
+        <v>175</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A264" s="5">
+        <v>176</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A266" s="5">
+        <v>177</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A267" s="5">
+        <v>178</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A268" s="5">
+        <v>179</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A269" s="5">
+        <v>180</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A271" s="5">
+        <v>181</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A272" s="5">
+        <v>182</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274" s="5">
+        <v>183</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C274" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A275" s="5">
+        <v>184</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A277" s="5">
+        <v>185</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A279" s="5">
+        <v>186</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280" s="5">
+        <v>187</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A281" s="5">
+        <v>188</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A285" s="5">
+        <v>189</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A286" s="5">
+        <v>190</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A287" s="5">
+        <v>191</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A289" s="5">
+        <v>192</v>
+      </c>
+      <c r="B289" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E290"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A291" s="5">
+        <v>193</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A292" s="5">
+        <v>194</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A294" s="5">
+        <v>195</v>
+      </c>
+      <c r="B294" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A295" s="5">
+        <v>196</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A297" s="5">
+        <v>197</v>
+      </c>
+      <c r="B297" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A298" s="5">
+        <v>198</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A299" s="5">
+        <v>199</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A300" s="5">
+        <v>200</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A304" s="5">
+        <v>201</v>
+      </c>
+      <c r="B304" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A305" s="5">
+        <v>202</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A306" s="5">
+        <v>203</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A307" s="5">
+        <v>204</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A309" s="5">
+        <v>205</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A311" s="5">
+        <v>206</v>
+      </c>
+      <c r="B311" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A313" s="5">
+        <v>207</v>
+      </c>
+      <c r="B313" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A314" s="5">
+        <v>208</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A315" s="5">
+        <v>209</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A319" s="5">
+        <v>210</v>
+      </c>
+      <c r="B319" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C319" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A320" s="5">
+        <v>211</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A321" s="5">
+        <v>212</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A322" s="5">
+        <v>213</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A324" s="5">
+        <v>214</v>
+      </c>
+      <c r="B324" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A325" s="5">
+        <v>215</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A326" s="5">
+        <v>216</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A328" s="5">
+        <v>217</v>
+      </c>
+      <c r="B328" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A329" s="5">
+        <v>218</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A331" s="5">
+        <v>219</v>
+      </c>
+      <c r="B331" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A332" s="5">
+        <v>220</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2159,9 +4320,16 @@
     <hyperlink ref="E23" r:id="rId11"/>
     <hyperlink ref="E24" r:id="rId12"/>
     <hyperlink ref="E61" r:id="rId13"/>
+    <hyperlink ref="E117" r:id="rId14"/>
+    <hyperlink ref="E152" r:id="rId15"/>
+    <hyperlink ref="E154" r:id="rId16"/>
+    <hyperlink ref="E151" r:id="rId17"/>
+    <hyperlink ref="E153" r:id="rId18"/>
+    <hyperlink ref="E156" r:id="rId19"/>
+    <hyperlink ref="E157" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="402">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1638,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H151" sqref="H151"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2565,7 +2565,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>68</v>
       </c>
@@ -2578,11 +2578,14 @@
       <c r="D98" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="9" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F98" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>69</v>
       </c>
@@ -2593,7 +2596,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>70</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>71</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>72</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>73</v>
       </c>
@@ -2643,7 +2646,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>74</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>75</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>76</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>77</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>78</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>79</v>
       </c>
@@ -2969,7 +2972,7 @@
       <c r="D140" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="9" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3260,7 +3263,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
         <v>122</v>
       </c>
@@ -3275,7 +3278,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
         <v>123</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
         <v>124</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <v>125</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <v>126</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>127</v>
       </c>
@@ -3330,7 +3333,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="5">
         <v>128</v>
       </c>
@@ -3340,19 +3343,22 @@
       <c r="C190" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="E190" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F190" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <v>129</v>
       </c>
-      <c r="E191" s="3" t="s">
+      <c r="E191" s="9" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
         <v>130</v>
       </c>
@@ -3362,27 +3368,30 @@
       <c r="C193" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="E193" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="5">
         <v>131</v>
       </c>
-      <c r="E194" s="3" t="s">
+      <c r="E194" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
         <v>132</v>
       </c>
-      <c r="E195" s="3" t="s">
+      <c r="E195" s="9" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F195" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
         <v>133</v>
       </c>
@@ -3390,7 +3399,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
         <v>134</v>
       </c>
@@ -3404,15 +3413,15 @@
         <v>288</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
         <v>135</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="E199" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
         <v>136</v>
       </c>
@@ -3422,19 +3431,22 @@
       <c r="C201" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E201" s="3" t="s">
+      <c r="E201" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="5">
         <v>137</v>
       </c>
-      <c r="E202" s="3" t="s">
+      <c r="E202" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F202" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
         <v>138</v>
       </c>
@@ -3444,19 +3456,19 @@
       <c r="C204" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E204" s="3" t="s">
+      <c r="E204" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
         <v>139</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="E205" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="5">
         <v>140</v>
       </c>
@@ -3470,7 +3482,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
         <v>141</v>
       </c>
@@ -3478,7 +3490,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
         <v>142</v>
       </c>
@@ -3486,7 +3498,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="5">
         <v>143</v>
       </c>
@@ -3494,7 +3506,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="5">
         <v>144</v>
       </c>
@@ -3508,7 +3520,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
         <v>145</v>
       </c>
@@ -3516,7 +3528,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="5">
         <v>146</v>
       </c>
@@ -3524,7 +3536,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="5">
         <v>147</v>
       </c>
@@ -3538,7 +3550,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="5">
         <v>148</v>
       </c>
@@ -3546,7 +3558,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="5">
         <v>149</v>
       </c>
@@ -3554,7 +3566,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="5">
         <v>150</v>
       </c>
@@ -3568,12 +3580,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="5">
         <v>151</v>
       </c>
-      <c r="E223" s="3" t="s">
+      <c r="E223" s="9" t="s">
         <v>308</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
@@ -4327,9 +4342,22 @@
     <hyperlink ref="E153" r:id="rId18"/>
     <hyperlink ref="E156" r:id="rId19"/>
     <hyperlink ref="E157" r:id="rId20"/>
+    <hyperlink ref="E190" r:id="rId21"/>
+    <hyperlink ref="E191" r:id="rId22"/>
+    <hyperlink ref="E193" r:id="rId23"/>
+    <hyperlink ref="E194" r:id="rId24"/>
+    <hyperlink ref="E195" r:id="rId25"/>
+    <hyperlink ref="E199" r:id="rId26"/>
+    <hyperlink ref="E201" r:id="rId27"/>
+    <hyperlink ref="E202" r:id="rId28"/>
+    <hyperlink ref="E204" r:id="rId29"/>
+    <hyperlink ref="E205" r:id="rId30"/>
+    <hyperlink ref="E223" r:id="rId31"/>
+    <hyperlink ref="E140" r:id="rId32"/>
+    <hyperlink ref="E98" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="402">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:F332"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2592,7 +2592,7 @@
       <c r="D99" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="9" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2603,8 +2603,11 @@
       <c r="D100" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="9" t="s">
         <v>139</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -2614,7 +2617,7 @@
       <c r="D101" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="9" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2642,8 +2645,11 @@
       <c r="D104" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="9" t="s">
         <v>176</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -4355,9 +4361,13 @@
     <hyperlink ref="E223" r:id="rId31"/>
     <hyperlink ref="E140" r:id="rId32"/>
     <hyperlink ref="E98" r:id="rId33"/>
+    <hyperlink ref="E100" r:id="rId34"/>
+    <hyperlink ref="E101" r:id="rId35"/>
+    <hyperlink ref="E99" r:id="rId36"/>
+    <hyperlink ref="E104" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -1638,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2659,7 +2659,7 @@
       <c r="D105" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="9" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       <c r="D110" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="9" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4365,9 +4365,11 @@
     <hyperlink ref="E101" r:id="rId35"/>
     <hyperlink ref="E99" r:id="rId36"/>
     <hyperlink ref="E104" r:id="rId37"/>
+    <hyperlink ref="E105" r:id="rId38"/>
+    <hyperlink ref="E110" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="402">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:F332"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2711,6 +2711,9 @@
       </c>
       <c r="E110" s="9" t="s">
         <v>186</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="402">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1638,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2698,8 +2698,11 @@
       <c r="D109" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="9" t="s">
         <v>185</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -4370,9 +4373,10 @@
     <hyperlink ref="E104" r:id="rId37"/>
     <hyperlink ref="E105" r:id="rId38"/>
     <hyperlink ref="E110" r:id="rId39"/>
+    <hyperlink ref="E109" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1217,9 +1216,6 @@
   </si>
   <si>
     <t>Reverse Linked List</t>
-  </si>
-  <si>
-    <t>DONE;</t>
   </si>
   <si>
     <t>reverse _Linked_list 2</t>
@@ -1638,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2670,7 +2666,7 @@
       <c r="D106" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="9" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2681,7 +2677,7 @@
       <c r="D107" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="9" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2736,40 +2732,40 @@
         <v>190</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>80</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>81</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>82</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>83</v>
       </c>
@@ -2785,8 +2781,11 @@
       <c r="E117" s="9" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F117" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>84</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>85</v>
       </c>
@@ -2808,7 +2807,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>86</v>
       </c>
@@ -2825,7 +2824,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>87</v>
       </c>
@@ -2837,7 +2836,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>88</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>89</v>
       </c>
@@ -2865,7 +2864,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>90</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
         <v>91</v>
       </c>
@@ -2893,7 +2892,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
         <v>92</v>
       </c>
@@ -2904,7 +2903,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
         <v>93</v>
       </c>
@@ -2915,7 +2914,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
         <v>94</v>
       </c>
@@ -2932,7 +2931,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>95</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <v>96</v>
       </c>
@@ -2956,11 +2955,14 @@
       <c r="D135" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="9" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F135" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
         <v>97</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
         <v>98</v>
       </c>
@@ -2987,8 +2989,11 @@
       <c r="E140" s="9" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F140" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>99</v>
       </c>
@@ -2999,7 +3004,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
         <v>100</v>
       </c>
@@ -3010,10 +3015,10 @@
         <v>233</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
         <v>101</v>
       </c>
@@ -3043,7 +3048,7 @@
       <c r="D146" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="9" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3054,7 +3059,7 @@
       <c r="D147" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="9" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3137,7 +3142,7 @@
         <v>253</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>400</v>
+        <v>78</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -3145,21 +3150,24 @@
         <v>109</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>254</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>400</v>
+        <v>78</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>110</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="9" t="s">
         <v>255</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -4374,9 +4382,18 @@
     <hyperlink ref="E105" r:id="rId38"/>
     <hyperlink ref="E110" r:id="rId39"/>
     <hyperlink ref="E109" r:id="rId40"/>
+    <hyperlink ref="E106" r:id="rId41"/>
+    <hyperlink ref="E107" r:id="rId42"/>
+    <hyperlink ref="E114" r:id="rId43"/>
+    <hyperlink ref="E115" r:id="rId44"/>
+    <hyperlink ref="E113" r:id="rId45"/>
+    <hyperlink ref="E147" r:id="rId46"/>
+    <hyperlink ref="E146" r:id="rId47"/>
+    <hyperlink ref="E158" r:id="rId48"/>
+    <hyperlink ref="E135" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="D65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1802,7 +1802,7 @@
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>46</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>47</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>48</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>49</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>50</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>51</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>52</v>
       </c>
@@ -2368,33 +2368,42 @@
       <c r="D75" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F75" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>53</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F76" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>54</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>55</v>
       </c>
@@ -2405,7 +2414,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>56</v>
       </c>
@@ -4391,9 +4400,13 @@
     <hyperlink ref="E146" r:id="rId47"/>
     <hyperlink ref="E158" r:id="rId48"/>
     <hyperlink ref="E135" r:id="rId49"/>
+    <hyperlink ref="E14" r:id="rId50"/>
+    <hyperlink ref="E75" r:id="rId51"/>
+    <hyperlink ref="E76" r:id="rId52"/>
+    <hyperlink ref="E77" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="D185" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F191" sqref="F191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2410,8 +2410,11 @@
       <c r="D78" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="9" t="s">
         <v>133</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -3040,8 +3043,11 @@
       <c r="D144" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="9" t="s">
         <v>102</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
@@ -3386,6 +3392,9 @@
       <c r="E191" s="9" t="s">
         <v>281</v>
       </c>
+      <c r="F191" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
@@ -3462,6 +3471,9 @@
       </c>
       <c r="E201" s="9" t="s">
         <v>102</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -4404,9 +4416,11 @@
     <hyperlink ref="E75" r:id="rId51"/>
     <hyperlink ref="E76" r:id="rId52"/>
     <hyperlink ref="E77" r:id="rId53"/>
+    <hyperlink ref="E78" r:id="rId54"/>
+    <hyperlink ref="E144" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1632,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F332"/>
+  <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D185" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F191" sqref="F191"/>
+    <sheetView tabSelected="1" topLeftCell="D116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1648,742 +1648,728 @@
     <col min="6" max="6" width="15.26953125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+    <row r="2" spans="1:6" s="14" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D3" s="1"/>
-      <c r="F3" s="3"/>
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D13" s="2"/>
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
         <v>9</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
-        <v>10</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
         <v>12</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
         <v>13</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
         <v>14</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
-        <v>15</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
         <v>18</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
-        <v>19</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
+        <v>21</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
         <v>22</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
-        <v>23</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
         <v>25</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
-        <v>26</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
+        <v>27</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
         <v>28</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D41" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
-        <v>29</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>81</v>
-      </c>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D42" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
+        <v>30</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
         <v>31</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
-        <v>32</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
-        <v>33</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
-        <v>34</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>87</v>
+        <v>33</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
+        <v>34</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
         <v>35</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="5">
-        <v>36</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
+        <v>37</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
         <v>38</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="5">
-        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
-        <v>40</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
+        <v>40</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
         <v>41</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="5">
-        <v>42</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
+        <v>43</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
         <v>44</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="5">
-        <v>45</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
+        <v>48</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
         <v>49</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="5">
-        <v>50</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
+        <v>50</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
         <v>51</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="5">
-        <v>52</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>78</v>
@@ -2391,13 +2377,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>78</v>
@@ -2405,708 +2391,720 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="5">
-        <v>56</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>136</v>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>55</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
+        <v>58</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
         <v>59</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="5">
-        <v>60</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
+        <v>61</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
         <v>62</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D88" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="5">
-        <v>63</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
+        <v>63</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
         <v>64</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D91" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="5">
-        <v>65</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
+        <v>66</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
         <v>67</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D95" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="5">
-        <v>68</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>168</v>
+        <v>139</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
+        <v>71</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="5">
         <v>72</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D103" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="5">
-        <v>73</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
+        <v>75</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="5">
         <v>76</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D108" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E108" s="9" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="5">
-        <v>77</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="5">
-        <v>79</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>190</v>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="5">
+        <v>78</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
+        <v>81</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="5">
         <v>82</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D116" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E116" s="9" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="5">
-        <v>83</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>206</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
+        <v>84</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="5">
         <v>85</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D120" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E120" s="9" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="5">
-        <v>86</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>203</v>
+      <c r="F120" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
+        <v>86</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="5">
         <v>87</v>
       </c>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4" t="s">
+      <c r="C123" s="4"/>
+      <c r="D123" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E123" s="9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="5">
-        <v>88</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>210</v>
+      <c r="F123" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
+        <v>89</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="5">
         <v>90</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D127" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E127" s="3" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" s="5">
-        <v>91</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
+        <v>92</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="5">
         <v>93</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D131" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E131" s="3" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" s="5">
-        <v>94</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
+        <v>94</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="5">
         <v>95</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D134" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E134" s="3" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" s="5">
-        <v>96</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
+        <v>96</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="5">
         <v>97</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D137" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E137" s="3" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" s="5">
-        <v>98</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>178</v>
+        <v>240</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
+        <v>99</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="5">
         <v>100</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D143" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E143" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C143" s="2"/>
-    </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" s="5">
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="5">
         <v>101</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B145" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D145" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E144" s="9" t="s">
+      <c r="E145" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F144" s="2" t="s">
+      <c r="F145" s="2" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" s="5">
-        <v>102</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E146" s="9" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
+        <v>102</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" s="5">
         <v>103</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D148" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E147" s="9" t="s">
+      <c r="E148" s="9" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" s="5">
-        <v>104</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>78</v>
@@ -3114,13 +3112,13 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>78</v>
@@ -3128,47 +3126,47 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" s="5">
-        <v>108</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C156" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="F156" s="2" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" s="5">
+        <v>107</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>252</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>78</v>
@@ -3176,10 +3174,13 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>78</v>
@@ -3187,1240 +3188,1255 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
+        <v>110</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" s="5">
         <v>111</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E160" s="3" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A161" s="5">
-        <v>112</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
+        <v>113</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="5">
         <v>114</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="E164" s="3" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A165" s="5">
-        <v>115</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
-        <v>116</v>
-      </c>
-      <c r="C166" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="E166" s="3" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
+        <v>116</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="E167" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="5">
         <v>117</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="E168" s="3" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" s="5">
-        <v>118</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
+        <v>118</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="5">
         <v>119</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E171" s="3" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A174" s="5">
-        <v>120</v>
-      </c>
-      <c r="B174" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C174" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
+        <v>120</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C175" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="5">
         <v>121</v>
       </c>
-      <c r="E175" s="15" t="s">
+      <c r="E176" s="15" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" s="5">
-        <v>122</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
+        <v>122</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D178" s="2"/>
+      <c r="E178" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" s="5">
         <v>123</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="E179" s="3" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A182" s="5">
-        <v>124</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
+        <v>124</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" s="5">
         <v>125</v>
       </c>
-      <c r="E183" s="3" t="s">
+      <c r="E184" s="3" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" s="5">
-        <v>126</v>
-      </c>
-      <c r="B185" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
+        <v>126</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" s="5">
         <v>127</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="E187" s="3" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="5">
-        <v>128</v>
-      </c>
-      <c r="B190" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E190" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>281</v>
+        <v>98</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" s="5">
-        <v>130</v>
-      </c>
-      <c r="B193" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C193" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>283</v>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" s="5">
+        <v>129</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="5">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C194" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>78</v>
+        <v>284</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
+        <v>132</v>
+      </c>
+      <c r="E196" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" s="5">
         <v>133</v>
       </c>
-      <c r="E196" s="3" t="s">
+      <c r="E197" s="3" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" s="5">
-        <v>134</v>
-      </c>
-      <c r="B198" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
+        <v>134</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" s="5">
         <v>135</v>
       </c>
-      <c r="E199" s="9" t="s">
+      <c r="E200" s="9" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" s="5">
-        <v>136</v>
-      </c>
-      <c r="B201" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E201" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="5">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" s="5">
-        <v>138</v>
-      </c>
-      <c r="B204" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E204" s="9" t="s">
-        <v>235</v>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" s="5">
+        <v>137</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
+        <v>138</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E205" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" s="5">
         <v>139</v>
       </c>
-      <c r="E205" s="9" t="s">
+      <c r="E206" s="9" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A209" s="5">
-        <v>140</v>
-      </c>
-      <c r="B209" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="5">
+        <v>142</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" s="5">
         <v>143</v>
       </c>
-      <c r="E212" s="3" t="s">
+      <c r="E213" s="3" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A214" s="5">
-        <v>144</v>
-      </c>
-      <c r="B214" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="5">
+        <v>145</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217" s="5">
         <v>146</v>
       </c>
-      <c r="E216" s="3" t="s">
+      <c r="E217" s="3" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A218" s="5">
-        <v>147</v>
-      </c>
-      <c r="B218" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="5">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>179</v>
+        <v>304</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="5">
+        <v>148</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221" s="5">
         <v>149</v>
       </c>
-      <c r="E220" s="3" t="s">
+      <c r="E221" s="3" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A222" s="5">
-        <v>150</v>
-      </c>
-      <c r="B222" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="5">
+        <v>150</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224" s="5">
         <v>151</v>
       </c>
-      <c r="E223" s="9" t="s">
+      <c r="E224" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="F223" s="2" t="s">
+      <c r="F224" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A225" s="5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226" s="5">
         <v>152</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="B226" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C226" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E225" s="3" t="s">
+      <c r="E226" s="3" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A229" s="5">
-        <v>153</v>
-      </c>
-      <c r="B229" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E229" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="5">
+        <v>153</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A231" s="5">
         <v>154</v>
       </c>
-      <c r="E230" s="3" t="s">
+      <c r="E231" s="3" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A232" s="5">
-        <v>155</v>
-      </c>
-      <c r="B232" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="5">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="5">
+        <v>156</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A235" s="5">
         <v>157</v>
       </c>
-      <c r="E234" s="3" t="s">
+      <c r="E235" s="3" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A238" s="5">
-        <v>158</v>
-      </c>
-      <c r="B238" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E238" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="5">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>322</v>
+        <v>75</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="5">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>74</v>
+        <v>322</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="5">
+        <v>160</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A242" s="5">
         <v>161</v>
       </c>
-      <c r="E241" s="3" t="s">
+      <c r="E242" s="3" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A243" s="5">
-        <v>162</v>
-      </c>
-      <c r="B243" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E243" s="3" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="5">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="5">
+        <v>163</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A246" s="5">
         <v>164</v>
       </c>
-      <c r="E245" s="3" t="s">
+      <c r="E246" s="3" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A247" s="5">
-        <v>165</v>
-      </c>
-      <c r="B247" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="5">
+        <v>165</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A249" s="5">
         <v>166</v>
       </c>
-      <c r="E248" s="3" t="s">
+      <c r="E249" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A250" s="5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A251" s="5">
         <v>167</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="B251" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C251" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E250" s="3" t="s">
+      <c r="E251" s="3" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A252" s="5">
-        <v>168</v>
-      </c>
-      <c r="B252" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="5">
+        <v>168</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A254" s="5">
         <v>169</v>
       </c>
-      <c r="E253" s="3" t="s">
+      <c r="E254" s="3" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A257" s="5">
-        <v>170</v>
-      </c>
-      <c r="B257" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C257" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="E257" s="3" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="5">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>335</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>237</v>
+        <v>336</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="5">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="5">
+        <v>172</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261" s="5">
         <v>173</v>
       </c>
-      <c r="E260" s="3" t="s">
+      <c r="E261" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C261" s="2"/>
-    </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A262" s="5">
-        <v>174</v>
-      </c>
-      <c r="B262" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E262" s="3" t="s">
-        <v>340</v>
-      </c>
+      <c r="C262" s="2"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="5">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="5">
+        <v>175</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A265" s="5">
         <v>176</v>
       </c>
-      <c r="E264" s="3" t="s">
+      <c r="E265" s="3" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A266" s="5">
-        <v>177</v>
-      </c>
-      <c r="B266" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E266" s="3" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="5">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="5">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="5">
+        <v>179</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A270" s="5">
         <v>180</v>
       </c>
-      <c r="E269" s="3" t="s">
+      <c r="E270" s="3" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A271" s="5">
-        <v>181</v>
-      </c>
-      <c r="B271" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E271" s="3" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="5">
+        <v>181</v>
+      </c>
+      <c r="B272" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273" s="5">
         <v>182</v>
       </c>
-      <c r="E272" s="3" t="s">
+      <c r="E273" s="3" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A274" s="5">
-        <v>183</v>
-      </c>
-      <c r="B274" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C274" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="E274" s="3" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="5">
+        <v>183</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C275" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A276" s="5">
         <v>184</v>
       </c>
-      <c r="E275" s="3" t="s">
+      <c r="E276" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A277" s="5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A278" s="5">
         <v>185</v>
       </c>
-      <c r="B277" s="10" t="s">
+      <c r="B278" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C278" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E277" s="3" t="s">
+      <c r="E278" s="3" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A279" s="5">
-        <v>186</v>
-      </c>
-      <c r="B279" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E279" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="5">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="B280" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>301</v>
+        <v>357</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="5">
+        <v>187</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A282" s="5">
         <v>188</v>
       </c>
-      <c r="E281" s="3" t="s">
+      <c r="E282" s="3" t="s">
         <v>358</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A285" s="5">
-        <v>189</v>
-      </c>
-      <c r="B285" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E285" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="5">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="5">
+        <v>190</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A288" s="5">
         <v>191</v>
       </c>
-      <c r="E287" s="3" t="s">
+      <c r="E288" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A289" s="5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A290" s="5">
         <v>192</v>
       </c>
-      <c r="B289" s="10" t="s">
+      <c r="B290" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C290" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E289" s="3" t="s">
+      <c r="E290" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E290"/>
-    </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A291" s="5">
-        <v>193</v>
-      </c>
-      <c r="B291" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E291" s="3" t="s">
-        <v>366</v>
-      </c>
+      <c r="E291"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="5">
+        <v>193</v>
+      </c>
+      <c r="B292" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A293" s="5">
         <v>194</v>
       </c>
-      <c r="D292" s="2" t="s">
+      <c r="D293" s="2" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A294" s="5">
-        <v>195</v>
-      </c>
-      <c r="B294" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E294" s="3" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="5">
+        <v>195</v>
+      </c>
+      <c r="B295" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A296" s="5">
         <v>196</v>
       </c>
-      <c r="D295" s="2" t="s">
+      <c r="D296" s="2" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A297" s="5">
-        <v>197</v>
-      </c>
-      <c r="B297" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E297" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="5">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="B298" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="5">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="5">
+        <v>199</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A301" s="5">
         <v>200</v>
       </c>
-      <c r="E300" s="3" t="s">
+      <c r="E301" s="3" t="s">
         <v>375</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A304" s="5">
-        <v>201</v>
-      </c>
-      <c r="B304" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E304" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="5">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="B305" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="5">
+        <v>203</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A308" s="5">
         <v>204</v>
       </c>
-      <c r="E307" s="3" t="s">
+      <c r="E308" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A309" s="5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A310" s="5">
         <v>205</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B310" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="C310" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="E309" s="3" t="s">
+      <c r="E310" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A311" s="5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A312" s="5">
         <v>206</v>
       </c>
-      <c r="B311" s="10" t="s">
+      <c r="B312" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C311" s="2" t="s">
+      <c r="C312" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E311" s="3" t="s">
+      <c r="E312" s="3" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A313" s="5">
-        <v>207</v>
-      </c>
-      <c r="B313" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E313" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="5">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="B314" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="5">
+        <v>208</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A316" s="5">
         <v>209</v>
       </c>
-      <c r="E315" s="3" t="s">
+      <c r="E316" s="3" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A319" s="5">
-        <v>210</v>
-      </c>
-      <c r="B319" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="C319" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="E319" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="5">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="B320" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C320" s="15" t="s">
+        <v>388</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>378</v>
+        <v>48</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="5">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>49</v>
+        <v>378</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="5">
+        <v>212</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A323" s="5">
         <v>213</v>
       </c>
-      <c r="E322" s="3" t="s">
+      <c r="E323" s="3" t="s">
         <v>389</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A324" s="5">
-        <v>214</v>
-      </c>
-      <c r="B324" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E324" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="5">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>391</v>
+        <v>46</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="5">
+        <v>215</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A327" s="5">
         <v>216</v>
       </c>
-      <c r="E326" s="3" t="s">
+      <c r="E327" s="3" t="s">
         <v>392</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A328" s="5">
-        <v>217</v>
-      </c>
-      <c r="B328" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E328" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="5">
+        <v>217</v>
+      </c>
+      <c r="B329" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A330" s="5">
         <v>218</v>
       </c>
-      <c r="E329" s="3" t="s">
+      <c r="E330" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A331" s="5">
-        <v>219</v>
-      </c>
-      <c r="B331" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E331" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="5">
+        <v>219</v>
+      </c>
+      <c r="B332" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A333" s="5">
         <v>220</v>
       </c>
-      <c r="E332" s="3" t="s">
+      <c r="E333" s="3" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E7" r:id="rId4"/>
-    <hyperlink ref="E9" r:id="rId5"/>
-    <hyperlink ref="E10" r:id="rId6"/>
-    <hyperlink ref="E45" r:id="rId7"/>
-    <hyperlink ref="E11" r:id="rId8"/>
-    <hyperlink ref="E12" r:id="rId9"/>
-    <hyperlink ref="E20" r:id="rId10"/>
-    <hyperlink ref="E23" r:id="rId11"/>
-    <hyperlink ref="E24" r:id="rId12"/>
-    <hyperlink ref="E61" r:id="rId13"/>
-    <hyperlink ref="E117" r:id="rId14"/>
-    <hyperlink ref="E152" r:id="rId15"/>
-    <hyperlink ref="E154" r:id="rId16"/>
-    <hyperlink ref="E151" r:id="rId17"/>
-    <hyperlink ref="E153" r:id="rId18"/>
-    <hyperlink ref="E156" r:id="rId19"/>
-    <hyperlink ref="E157" r:id="rId20"/>
-    <hyperlink ref="E190" r:id="rId21"/>
-    <hyperlink ref="E191" r:id="rId22"/>
-    <hyperlink ref="E193" r:id="rId23"/>
-    <hyperlink ref="E194" r:id="rId24"/>
-    <hyperlink ref="E195" r:id="rId25"/>
-    <hyperlink ref="E199" r:id="rId26"/>
-    <hyperlink ref="E201" r:id="rId27"/>
-    <hyperlink ref="E202" r:id="rId28"/>
-    <hyperlink ref="E204" r:id="rId29"/>
-    <hyperlink ref="E205" r:id="rId30"/>
-    <hyperlink ref="E223" r:id="rId31"/>
-    <hyperlink ref="E140" r:id="rId32"/>
-    <hyperlink ref="E98" r:id="rId33"/>
-    <hyperlink ref="E100" r:id="rId34"/>
-    <hyperlink ref="E101" r:id="rId35"/>
-    <hyperlink ref="E99" r:id="rId36"/>
-    <hyperlink ref="E104" r:id="rId37"/>
-    <hyperlink ref="E105" r:id="rId38"/>
-    <hyperlink ref="E110" r:id="rId39"/>
-    <hyperlink ref="E109" r:id="rId40"/>
-    <hyperlink ref="E106" r:id="rId41"/>
-    <hyperlink ref="E107" r:id="rId42"/>
-    <hyperlink ref="E114" r:id="rId43"/>
-    <hyperlink ref="E115" r:id="rId44"/>
-    <hyperlink ref="E113" r:id="rId45"/>
-    <hyperlink ref="E147" r:id="rId46"/>
-    <hyperlink ref="E146" r:id="rId47"/>
-    <hyperlink ref="E158" r:id="rId48"/>
-    <hyperlink ref="E135" r:id="rId49"/>
-    <hyperlink ref="E14" r:id="rId50"/>
-    <hyperlink ref="E75" r:id="rId51"/>
-    <hyperlink ref="E76" r:id="rId52"/>
-    <hyperlink ref="E77" r:id="rId53"/>
-    <hyperlink ref="E78" r:id="rId54"/>
-    <hyperlink ref="E144" r:id="rId55"/>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId2"/>
+    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E10" r:id="rId5"/>
+    <hyperlink ref="E11" r:id="rId6"/>
+    <hyperlink ref="E46" r:id="rId7"/>
+    <hyperlink ref="E12" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9"/>
+    <hyperlink ref="E21" r:id="rId10"/>
+    <hyperlink ref="E24" r:id="rId11"/>
+    <hyperlink ref="E25" r:id="rId12"/>
+    <hyperlink ref="E62" r:id="rId13"/>
+    <hyperlink ref="E118" r:id="rId14"/>
+    <hyperlink ref="E153" r:id="rId15"/>
+    <hyperlink ref="E155" r:id="rId16"/>
+    <hyperlink ref="E152" r:id="rId17"/>
+    <hyperlink ref="E154" r:id="rId18"/>
+    <hyperlink ref="E157" r:id="rId19"/>
+    <hyperlink ref="E158" r:id="rId20"/>
+    <hyperlink ref="E191" r:id="rId21"/>
+    <hyperlink ref="E192" r:id="rId22"/>
+    <hyperlink ref="E194" r:id="rId23"/>
+    <hyperlink ref="E195" r:id="rId24"/>
+    <hyperlink ref="E196" r:id="rId25"/>
+    <hyperlink ref="E200" r:id="rId26"/>
+    <hyperlink ref="E202" r:id="rId27"/>
+    <hyperlink ref="E203" r:id="rId28"/>
+    <hyperlink ref="E205" r:id="rId29"/>
+    <hyperlink ref="E206" r:id="rId30"/>
+    <hyperlink ref="E224" r:id="rId31"/>
+    <hyperlink ref="E141" r:id="rId32"/>
+    <hyperlink ref="E99" r:id="rId33"/>
+    <hyperlink ref="E101" r:id="rId34"/>
+    <hyperlink ref="E102" r:id="rId35"/>
+    <hyperlink ref="E100" r:id="rId36"/>
+    <hyperlink ref="E105" r:id="rId37"/>
+    <hyperlink ref="E106" r:id="rId38"/>
+    <hyperlink ref="E111" r:id="rId39"/>
+    <hyperlink ref="E110" r:id="rId40"/>
+    <hyperlink ref="E107" r:id="rId41"/>
+    <hyperlink ref="E108" r:id="rId42"/>
+    <hyperlink ref="E115" r:id="rId43"/>
+    <hyperlink ref="E116" r:id="rId44"/>
+    <hyperlink ref="E114" r:id="rId45"/>
+    <hyperlink ref="E148" r:id="rId46"/>
+    <hyperlink ref="E147" r:id="rId47"/>
+    <hyperlink ref="E159" r:id="rId48"/>
+    <hyperlink ref="E136" r:id="rId49"/>
+    <hyperlink ref="E15" r:id="rId50"/>
+    <hyperlink ref="E76" r:id="rId51"/>
+    <hyperlink ref="E77" r:id="rId52"/>
+    <hyperlink ref="E78" r:id="rId53"/>
+    <hyperlink ref="E79" r:id="rId54"/>
+    <hyperlink ref="E145" r:id="rId55"/>
+    <hyperlink ref="E119" r:id="rId56"/>
+    <hyperlink ref="E120" r:id="rId57"/>
+    <hyperlink ref="E122" r:id="rId58"/>
+    <hyperlink ref="E123" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+    <sheetView tabSelected="1" topLeftCell="C116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2873,8 +2873,11 @@
       <c r="D125" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="9" t="s">
         <v>210</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
@@ -2884,8 +2887,11 @@
       <c r="D126" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="9" t="s">
         <v>211</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -2895,7 +2901,7 @@
       <c r="D127" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="9" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2912,7 +2918,7 @@
       <c r="D129" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="9" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4434,9 +4440,13 @@
     <hyperlink ref="E120" r:id="rId57"/>
     <hyperlink ref="E122" r:id="rId58"/>
     <hyperlink ref="E123" r:id="rId59"/>
+    <hyperlink ref="E125" r:id="rId60"/>
+    <hyperlink ref="E126" r:id="rId61"/>
+    <hyperlink ref="E127" r:id="rId62"/>
+    <hyperlink ref="E129" r:id="rId63"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId60"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId64"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="402">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1219,6 +1219,9 @@
   </si>
   <si>
     <t>reverse _Linked_list 2</t>
+  </si>
+  <si>
+    <t>DONe</t>
   </si>
 </sst>
 </file>
@@ -1634,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1746,6 +1749,9 @@
       <c r="E10" s="9" t="s">
         <v>50</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
@@ -1805,6 +1811,9 @@
       <c r="E15" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
@@ -1819,8 +1828,11 @@
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="9" t="s">
         <v>58</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1830,7 +1842,7 @@
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1841,7 +1853,7 @@
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1872,7 +1884,7 @@
       <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1914,7 +1926,7 @@
       <c r="D26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="9" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1925,7 +1937,7 @@
       <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1942,7 +1954,7 @@
       <c r="D29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1953,7 +1965,7 @@
       <c r="D30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1964,7 +1976,7 @@
       <c r="D31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1975,7 +1987,7 @@
       <c r="D32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1992,7 +2004,7 @@
       <c r="D34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2003,7 +2015,7 @@
       <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2014,7 +2026,7 @@
       <c r="D36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2031,7 +2043,7 @@
       <c r="D38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2042,7 +2054,7 @@
       <c r="D39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2053,7 +2065,7 @@
       <c r="D40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2921,6 +2933,9 @@
       <c r="E129" s="9" t="s">
         <v>217</v>
       </c>
+      <c r="F129" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
@@ -2929,7 +2944,7 @@
       <c r="D130" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="9" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2940,8 +2955,11 @@
       <c r="D131" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="9" t="s">
         <v>218</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -4444,9 +4462,27 @@
     <hyperlink ref="E126" r:id="rId61"/>
     <hyperlink ref="E127" r:id="rId62"/>
     <hyperlink ref="E129" r:id="rId63"/>
+    <hyperlink ref="E130" r:id="rId64"/>
+    <hyperlink ref="E131" r:id="rId65"/>
+    <hyperlink ref="E17" r:id="rId66"/>
+    <hyperlink ref="E18" r:id="rId67"/>
+    <hyperlink ref="E19" r:id="rId68"/>
+    <hyperlink ref="E22" r:id="rId69"/>
+    <hyperlink ref="E26" r:id="rId70"/>
+    <hyperlink ref="E27" r:id="rId71"/>
+    <hyperlink ref="E29" r:id="rId72"/>
+    <hyperlink ref="E30" r:id="rId73"/>
+    <hyperlink ref="E31" r:id="rId74"/>
+    <hyperlink ref="E32" r:id="rId75"/>
+    <hyperlink ref="E34" r:id="rId76"/>
+    <hyperlink ref="E35" r:id="rId77"/>
+    <hyperlink ref="E36" r:id="rId78"/>
+    <hyperlink ref="E38" r:id="rId79"/>
+    <hyperlink ref="E39" r:id="rId80"/>
+    <hyperlink ref="E40" r:id="rId81"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId64"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId82"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1219,9 +1219,6 @@
   </si>
   <si>
     <t>reverse _Linked_list 2</t>
-  </si>
-  <si>
-    <t>DONe</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1635,7 @@
   <dimension ref="A2:F333"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1832,7 +1829,7 @@
         <v>58</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>401</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1845,6 +1842,9 @@
       <c r="E18" s="9" t="s">
         <v>59</v>
       </c>
+      <c r="F18" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
@@ -1918,6 +1918,9 @@
       <c r="E25" s="9" t="s">
         <v>64</v>
       </c>
+      <c r="F25" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
@@ -1929,6 +1932,9 @@
       <c r="E26" s="9" t="s">
         <v>65</v>
       </c>
+      <c r="F26" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -1956,6 +1962,9 @@
       </c>
       <c r="E29" s="9" t="s">
         <v>67</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1988,6 +1988,9 @@
       <c r="E31" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="F31" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
@@ -1999,6 +2002,9 @@
       <c r="E32" s="9" t="s">
         <v>70</v>
       </c>
+      <c r="F32" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
@@ -2016,6 +2022,9 @@
       <c r="E34" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="F34" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
@@ -2027,6 +2036,9 @@
       <c r="E35" s="9" t="s">
         <v>72</v>
       </c>
+      <c r="F35" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
@@ -2038,6 +2050,9 @@
       <c r="E36" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="F36" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
@@ -2054,6 +2069,9 @@
       </c>
       <c r="E38" s="9" t="s">
         <v>74</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2084,6 +2084,9 @@
       <c r="E39" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="F39" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
@@ -2095,6 +2098,9 @@
       <c r="E40" s="9" t="s">
         <v>76</v>
       </c>
+      <c r="F40" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D41" s="2"/>
@@ -2115,8 +2121,11 @@
       <c r="D44" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="9" t="s">
         <v>81</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -2126,8 +2135,11 @@
       <c r="D45" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="9" t="s">
         <v>83</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -2157,44 +2169,44 @@
       <c r="D48" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>34</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>35</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>36</v>
       </c>
@@ -2207,11 +2219,11 @@
       <c r="D53" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>37</v>
       </c>
@@ -2222,7 +2234,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>38</v>
       </c>
@@ -2233,12 +2245,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>40</v>
       </c>
@@ -2251,22 +2263,28 @@
       <c r="D58" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>41</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>42</v>
       </c>
@@ -2283,7 +2301,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>43</v>
       </c>
@@ -2294,7 +2312,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>44</v>
       </c>
@@ -2379,7 +2397,7 @@
       <c r="D71" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="9" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2390,7 +2408,7 @@
       <c r="D72" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="9" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2469,7 +2487,7 @@
       <c r="D81" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="9" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2480,7 +2498,7 @@
       <c r="D82" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="9" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2491,7 +2509,7 @@
       <c r="D83" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="9" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2502,7 +2520,7 @@
       <c r="D84" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="9" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2519,7 +2537,7 @@
       <c r="D86" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="9" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2530,7 +2548,7 @@
       <c r="D87" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="9" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2541,7 +2559,7 @@
       <c r="D88" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="9" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4507,9 +4525,27 @@
     <hyperlink ref="E38" r:id="rId79"/>
     <hyperlink ref="E39" r:id="rId80"/>
     <hyperlink ref="E40" r:id="rId81"/>
+    <hyperlink ref="E44" r:id="rId82"/>
+    <hyperlink ref="E45" r:id="rId83"/>
+    <hyperlink ref="E48" r:id="rId84"/>
+    <hyperlink ref="E49" r:id="rId85"/>
+    <hyperlink ref="E50" r:id="rId86"/>
+    <hyperlink ref="E51" r:id="rId87"/>
+    <hyperlink ref="E53" r:id="rId88"/>
+    <hyperlink ref="E58" r:id="rId89"/>
+    <hyperlink ref="E59" r:id="rId90"/>
+    <hyperlink ref="E71" r:id="rId91"/>
+    <hyperlink ref="E72" r:id="rId92"/>
+    <hyperlink ref="E81" r:id="rId93"/>
+    <hyperlink ref="E82" r:id="rId94"/>
+    <hyperlink ref="E83" r:id="rId95"/>
+    <hyperlink ref="E84" r:id="rId96"/>
+    <hyperlink ref="E86" r:id="rId97"/>
+    <hyperlink ref="E87" r:id="rId98"/>
+    <hyperlink ref="E88" r:id="rId99"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId82"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId100"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2474,7 +2474,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>56</v>
       </c>
@@ -2490,8 +2490,11 @@
       <c r="E81" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F81" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>57</v>
       </c>
@@ -2502,7 +2505,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>58</v>
       </c>
@@ -2512,8 +2515,11 @@
       <c r="E83" s="9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F83" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>59</v>
       </c>
@@ -2523,8 +2529,11 @@
       <c r="E84" s="9" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F84" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>60</v>
       </c>
@@ -2541,7 +2550,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>61</v>
       </c>
@@ -2551,8 +2560,11 @@
       <c r="E87" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F87" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>62</v>
       </c>
@@ -2563,7 +2575,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>63</v>
       </c>
@@ -2576,22 +2588,25 @@
       <c r="D90" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F90" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>64</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>65</v>
       </c>
@@ -2604,29 +2619,32 @@
       <c r="D93" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="9" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F93" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>66</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>67</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="9" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4543,9 +4561,14 @@
     <hyperlink ref="E86" r:id="rId97"/>
     <hyperlink ref="E87" r:id="rId98"/>
     <hyperlink ref="E88" r:id="rId99"/>
+    <hyperlink ref="E90" r:id="rId100"/>
+    <hyperlink ref="E91" r:id="rId101"/>
+    <hyperlink ref="E93" r:id="rId102"/>
+    <hyperlink ref="E94" r:id="rId103"/>
+    <hyperlink ref="E95" r:id="rId104"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId100"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId105"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3038,7 +3038,7 @@
       <c r="D133" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3049,7 +3049,7 @@
       <c r="D134" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="9" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       <c r="D142" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E142" s="9" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       <c r="D143" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="9" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3288,11 +3288,11 @@
       <c r="A160" s="5">
         <v>111</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
         <v>112</v>
       </c>
@@ -3302,27 +3302,30 @@
       <c r="C162" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E162" s="9" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F162" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <v>113</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="E163" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <v>114</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="9" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>115</v>
       </c>
@@ -3332,11 +3335,11 @@
       <c r="C166" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>116</v>
       </c>
@@ -3345,15 +3348,15 @@
         <v>238</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>117</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="E168" s="9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>118</v>
       </c>
@@ -3363,19 +3366,19 @@
       <c r="C170" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E170" s="9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>119</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E171" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
         <v>120</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
         <v>121</v>
       </c>
@@ -4566,9 +4569,21 @@
     <hyperlink ref="E93" r:id="rId102"/>
     <hyperlink ref="E94" r:id="rId103"/>
     <hyperlink ref="E95" r:id="rId104"/>
+    <hyperlink ref="E133" r:id="rId105"/>
+    <hyperlink ref="E134" r:id="rId106"/>
+    <hyperlink ref="E142" r:id="rId107"/>
+    <hyperlink ref="E143" r:id="rId108"/>
+    <hyperlink ref="E160" r:id="rId109"/>
+    <hyperlink ref="E162" r:id="rId110"/>
+    <hyperlink ref="E163" r:id="rId111"/>
+    <hyperlink ref="E164" r:id="rId112"/>
+    <hyperlink ref="E166" r:id="rId113"/>
+    <hyperlink ref="E168" r:id="rId114"/>
+    <hyperlink ref="E170" r:id="rId115"/>
+    <hyperlink ref="E171" r:id="rId116"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId105"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId117"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3291,6 +3291,9 @@
       <c r="E160" s="9" t="s">
         <v>256</v>
       </c>
+      <c r="F160" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
@@ -3316,6 +3319,9 @@
       <c r="E163" s="9" t="s">
         <v>259</v>
       </c>
+      <c r="F163" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
@@ -3324,6 +3330,9 @@
       <c r="E164" s="9" t="s">
         <v>260</v>
       </c>
+      <c r="F164" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
@@ -3354,6 +3363,9 @@
       </c>
       <c r="E168" s="9" t="s">
         <v>263</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E170" sqref="E170"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M205" sqref="M205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3347,6 +3347,9 @@
       <c r="E166" s="9" t="s">
         <v>258</v>
       </c>
+      <c r="F166" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
@@ -3633,15 +3636,18 @@
       <c r="C210" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="E210" s="9" t="s">
         <v>295</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
         <v>141</v>
       </c>
-      <c r="E211" s="3" t="s">
+      <c r="E211" s="9" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3649,7 +3655,7 @@
       <c r="A212" s="5">
         <v>142</v>
       </c>
-      <c r="E212" s="3" t="s">
+      <c r="E212" s="9" t="s">
         <v>297</v>
       </c>
     </row>
@@ -3657,7 +3663,7 @@
       <c r="A213" s="5">
         <v>143</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="E213" s="9" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4593,9 +4599,13 @@
     <hyperlink ref="E168" r:id="rId114"/>
     <hyperlink ref="E170" r:id="rId115"/>
     <hyperlink ref="E171" r:id="rId116"/>
+    <hyperlink ref="E210" r:id="rId117"/>
+    <hyperlink ref="E211" r:id="rId118"/>
+    <hyperlink ref="E212" r:id="rId119"/>
+    <hyperlink ref="E213" r:id="rId120"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId117"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId121"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M205" sqref="M205"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3677,7 +3677,7 @@
       <c r="C215" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E215" s="3" t="s">
+      <c r="E215" s="9" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       <c r="A216" s="5">
         <v>145</v>
       </c>
-      <c r="E216" s="3" t="s">
+      <c r="E216" s="9" t="s">
         <v>301</v>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       <c r="A217" s="5">
         <v>146</v>
       </c>
-      <c r="E217" s="3" t="s">
+      <c r="E217" s="9" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       <c r="C219" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E219" s="3" t="s">
+      <c r="E219" s="9" t="s">
         <v>304</v>
       </c>
     </row>
@@ -3715,16 +3715,22 @@
       <c r="A220" s="5">
         <v>148</v>
       </c>
-      <c r="E220" s="3" t="s">
+      <c r="E220" s="9" t="s">
         <v>179</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
         <v>149</v>
       </c>
-      <c r="E221" s="3" t="s">
+      <c r="E221" s="9" t="s">
         <v>305</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
@@ -3737,7 +3743,7 @@
       <c r="C223" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E223" s="3" t="s">
+      <c r="E223" s="9" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3762,7 +3768,7 @@
       <c r="C226" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E226" s="3" t="s">
+      <c r="E226" s="9" t="s">
         <v>310</v>
       </c>
     </row>
@@ -4603,9 +4609,17 @@
     <hyperlink ref="E211" r:id="rId118"/>
     <hyperlink ref="E212" r:id="rId119"/>
     <hyperlink ref="E213" r:id="rId120"/>
+    <hyperlink ref="E215" r:id="rId121"/>
+    <hyperlink ref="E216" r:id="rId122"/>
+    <hyperlink ref="E217" r:id="rId123"/>
+    <hyperlink ref="E219" r:id="rId124"/>
+    <hyperlink ref="E220" r:id="rId125"/>
+    <hyperlink ref="E221" r:id="rId126"/>
+    <hyperlink ref="E223" r:id="rId127"/>
+    <hyperlink ref="E226" r:id="rId128"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId121"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId129"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D215" sqref="D215"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3745,6 +3745,9 @@
       </c>
       <c r="E223" s="9" t="s">
         <v>307</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -1635,7 +1635,7 @@
   <dimension ref="A2:F333"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A203" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D224" sqref="D224"/>
+      <selection activeCell="E223" sqref="E223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1634,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E223" sqref="E223"/>
+    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E245" sqref="E245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3761,7 +3762,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="5">
         <v>152</v>
       </c>
@@ -3775,7 +3776,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="5">
         <v>153</v>
       </c>
@@ -3789,7 +3790,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="5">
         <v>154</v>
       </c>
@@ -3797,7 +3798,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="5">
         <v>155</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="5">
         <v>156</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="5">
         <v>157</v>
       </c>
@@ -3827,7 +3828,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="5">
         <v>158</v>
       </c>
@@ -3837,35 +3838,41 @@
       <c r="C239" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E239" s="3" t="s">
+      <c r="E239" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F239" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="5">
         <v>159</v>
       </c>
-      <c r="E240" s="3" t="s">
+      <c r="E240" s="9" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="5">
         <v>160</v>
       </c>
-      <c r="E241" s="3" t="s">
+      <c r="E241" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F241" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="5">
         <v>161</v>
       </c>
-      <c r="E242" s="3" t="s">
+      <c r="E242" s="9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="5">
         <v>162</v>
       </c>
@@ -3875,27 +3882,33 @@
       <c r="C244" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E244" s="3" t="s">
+      <c r="E244" s="9" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F244" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="5">
         <v>163</v>
       </c>
-      <c r="E245" s="3" t="s">
+      <c r="E245" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="5">
         <v>164</v>
       </c>
-      <c r="E246" s="3" t="s">
+      <c r="E246" s="9" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F246" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="5">
         <v>165</v>
       </c>
@@ -3909,7 +3922,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="5">
         <v>166</v>
       </c>
@@ -3917,7 +3930,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="5">
         <v>167</v>
       </c>
@@ -3931,7 +3944,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="5">
         <v>168</v>
       </c>
@@ -3945,7 +3958,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="5">
         <v>169</v>
       </c>
@@ -4620,9 +4633,16 @@
     <hyperlink ref="E221" r:id="rId126"/>
     <hyperlink ref="E223" r:id="rId127"/>
     <hyperlink ref="E226" r:id="rId128"/>
+    <hyperlink ref="E239" r:id="rId129"/>
+    <hyperlink ref="E240" r:id="rId130"/>
+    <hyperlink ref="E241" r:id="rId131"/>
+    <hyperlink ref="E242" r:id="rId132"/>
+    <hyperlink ref="E244" r:id="rId133"/>
+    <hyperlink ref="E245" r:id="rId134"/>
+    <hyperlink ref="E246" r:id="rId135"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId129"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId136"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1635,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E245" sqref="E245"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D257" sqref="D257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3851,6 +3850,9 @@
       </c>
       <c r="E240" s="9" t="s">
         <v>322</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1634,16 +1634,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D257" sqref="D257"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F250" sqref="F250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.81640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.90625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="34.6328125" style="10" customWidth="1"/>
     <col min="3" max="3" width="53.08984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="44.08984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.26953125" style="4" customWidth="1"/>
     <col min="5" max="5" width="92" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.26953125" style="2" customWidth="1"/>
   </cols>
@@ -3898,6 +3898,9 @@
       <c r="E245" s="9" t="s">
         <v>326</v>
       </c>
+      <c r="F245" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="5">
@@ -3920,16 +3923,22 @@
       <c r="C248" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E248" s="3" t="s">
+      <c r="E248" s="9" t="s">
         <v>329</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="5">
         <v>166</v>
       </c>
-      <c r="E249" s="3" t="s">
+      <c r="E249" s="9" t="s">
         <v>330</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
@@ -4642,9 +4651,11 @@
     <hyperlink ref="E244" r:id="rId133"/>
     <hyperlink ref="E245" r:id="rId134"/>
     <hyperlink ref="E246" r:id="rId135"/>
+    <hyperlink ref="E248" r:id="rId136"/>
+    <hyperlink ref="E249" r:id="rId137"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId136"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId138"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1044,9 +1044,6 @@
     <t>https://leetcode.com/problems/balanced-binary-tree/</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/same-tree/</t>
-  </si>
-  <si>
     <t>Path Sum Problems</t>
   </si>
   <si>
@@ -1219,6 +1216,9 @@
   </si>
   <si>
     <t>reverse _Linked_list 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F250" sqref="F250"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D290" sqref="D290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3188,7 +3188,7 @@
         <v>247</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>248</v>
@@ -3202,7 +3202,7 @@
         <v>105</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>249</v>
@@ -3216,7 +3216,7 @@
         <v>106</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>250</v>
@@ -3230,7 +3230,7 @@
         <v>107</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>251</v>
@@ -3250,7 +3250,7 @@
         <v>252</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>253</v>
@@ -3264,7 +3264,7 @@
         <v>109</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>254</v>
@@ -3951,7 +3951,7 @@
       <c r="C251" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E251" s="3" t="s">
+      <c r="E251" s="9" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       <c r="C253" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E253" s="3" t="s">
+      <c r="E253" s="9" t="s">
         <v>333</v>
       </c>
     </row>
@@ -3973,11 +3973,11 @@
       <c r="A254" s="5">
         <v>169</v>
       </c>
-      <c r="E254" s="3" t="s">
+      <c r="E254" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="5">
         <v>170</v>
       </c>
@@ -3987,38 +3987,50 @@
       <c r="C258" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="E258" s="3" t="s">
+      <c r="E258" s="9" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F258" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="5">
         <v>171</v>
       </c>
-      <c r="E259" s="3" t="s">
+      <c r="E259" s="9" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F259" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="5">
         <v>172</v>
       </c>
-      <c r="E260" s="3" t="s">
+      <c r="E260" s="9" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F260" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="5">
         <v>173</v>
       </c>
-      <c r="E261" s="3" t="s">
+      <c r="E261" s="9" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F261" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C262" s="2"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="5">
         <v>174</v>
       </c>
@@ -4032,7 +4044,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="5">
         <v>175</v>
       </c>
@@ -4040,15 +4052,15 @@
         <v>341</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="5">
         <v>176</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="5">
         <v>177</v>
       </c>
@@ -4056,37 +4068,37 @@
         <v>334</v>
       </c>
       <c r="C267" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E267" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="E267" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="5">
         <v>178</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="5">
         <v>179</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="5">
         <v>180</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="5">
         <v>181</v>
       </c>
@@ -4094,10 +4106,10 @@
         <v>334</v>
       </c>
       <c r="C272" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E272" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="E272" s="3" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
@@ -4105,7 +4117,7 @@
         <v>182</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
@@ -4116,18 +4128,18 @@
         <v>334</v>
       </c>
       <c r="C275" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="E275" s="9" t="s">
         <v>351</v>
-      </c>
-      <c r="E275" s="3" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="5">
         <v>184</v>
       </c>
-      <c r="E276" s="3" t="s">
-        <v>353</v>
+      <c r="E276" s="9" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
@@ -4138,10 +4150,10 @@
         <v>334</v>
       </c>
       <c r="C278" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E278" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="E278" s="3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
@@ -4152,10 +4164,10 @@
         <v>334</v>
       </c>
       <c r="C280" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E280" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="E280" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
@@ -4171,7 +4183,7 @@
         <v>188</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
@@ -4179,13 +4191,13 @@
         <v>189</v>
       </c>
       <c r="B286" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C286" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="E286" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="E286" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
@@ -4193,7 +4205,7 @@
         <v>190</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
@@ -4201,7 +4213,7 @@
         <v>191</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
@@ -4209,10 +4221,10 @@
         <v>192</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E290" s="3" t="s">
         <v>339</v>
@@ -4226,16 +4238,16 @@
         <v>193</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C292" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E292" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E292" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
@@ -4243,7 +4255,7 @@
         <v>194</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
@@ -4251,13 +4263,13 @@
         <v>195</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
@@ -4265,7 +4277,7 @@
         <v>196</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
@@ -4273,13 +4285,13 @@
         <v>197</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C298" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E298" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="E298" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
@@ -4287,7 +4299,7 @@
         <v>198</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
@@ -4295,7 +4307,7 @@
         <v>199</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
@@ -4303,7 +4315,7 @@
         <v>200</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
@@ -4311,13 +4323,13 @@
         <v>201</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C305" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E305" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="E305" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
@@ -4325,7 +4337,7 @@
         <v>202</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
@@ -4333,7 +4345,7 @@
         <v>203</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
@@ -4341,7 +4353,7 @@
         <v>204</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
@@ -4349,10 +4361,10 @@
         <v>205</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E310" s="3" t="s">
         <v>238</v>
@@ -4363,13 +4375,13 @@
         <v>206</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C312" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E312" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="E312" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
@@ -4377,10 +4389,10 @@
         <v>207</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E314" s="3" t="s">
         <v>323</v>
@@ -4399,7 +4411,7 @@
         <v>209</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
@@ -4407,10 +4419,10 @@
         <v>210</v>
       </c>
       <c r="B320" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C320" s="15" t="s">
         <v>387</v>
-      </c>
-      <c r="C320" s="15" t="s">
-        <v>388</v>
       </c>
       <c r="E320" s="3" t="s">
         <v>48</v>
@@ -4421,7 +4433,7 @@
         <v>211</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
@@ -4437,7 +4449,7 @@
         <v>213</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
@@ -4445,10 +4457,10 @@
         <v>214</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E325" s="3" t="s">
         <v>46</v>
@@ -4459,7 +4471,7 @@
         <v>215</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
@@ -4467,7 +4479,7 @@
         <v>216</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
@@ -4475,10 +4487,10 @@
         <v>217</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E329" s="3" t="s">
         <v>47</v>
@@ -4497,10 +4509,10 @@
         <v>219</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E332" s="3" t="s">
         <v>60</v>
@@ -4653,9 +4665,19 @@
     <hyperlink ref="E246" r:id="rId135"/>
     <hyperlink ref="E248" r:id="rId136"/>
     <hyperlink ref="E249" r:id="rId137"/>
+    <hyperlink ref="E251" r:id="rId138"/>
+    <hyperlink ref="E253" r:id="rId139"/>
+    <hyperlink ref="E254" r:id="rId140"/>
+    <hyperlink ref="E258" r:id="rId141"/>
+    <hyperlink ref="E259" r:id="rId142"/>
+    <hyperlink ref="E260" r:id="rId143"/>
+    <hyperlink ref="E261" r:id="rId144"/>
+    <hyperlink ref="E275" r:id="rId145"/>
+    <hyperlink ref="E276" r:id="rId146"/>
+    <hyperlink ref="E267" r:id="rId147"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId138"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId148"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D290" sqref="D290"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F287" sqref="F287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4112,7 +4112,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="5">
         <v>182</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="5">
         <v>183</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="5">
         <v>184</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="5">
         <v>185</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="5">
         <v>186</v>
       </c>
@@ -4169,8 +4169,11 @@
       <c r="E280" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F280" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="5">
         <v>187</v>
       </c>
@@ -4178,15 +4181,18 @@
         <v>301</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="5">
         <v>188</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F282" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="5">
         <v>189</v>
       </c>
@@ -4200,7 +4206,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="5">
         <v>190</v>
       </c>
@@ -4208,7 +4214,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="5">
         <v>191</v>
       </c>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="402">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1219,6 +1219,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -1634,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F287" sqref="F287"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J272" sqref="J272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4040,7 +4043,7 @@
       <c r="C263" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E263" s="3" t="s">
+      <c r="E263" s="9" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4048,7 +4051,7 @@
       <c r="A264" s="5">
         <v>175</v>
       </c>
-      <c r="E264" s="3" t="s">
+      <c r="E264" s="9" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4118,6 +4121,14 @@
       </c>
       <c r="E273" s="3" t="s">
         <v>349</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E274" s="3" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
@@ -4681,9 +4692,11 @@
     <hyperlink ref="E275" r:id="rId145"/>
     <hyperlink ref="E276" r:id="rId146"/>
     <hyperlink ref="E267" r:id="rId147"/>
+    <hyperlink ref="E263" r:id="rId148"/>
+    <hyperlink ref="E264" r:id="rId149"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId148"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId150"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="402">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1637,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J272" sqref="J272"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E294" sqref="E294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4046,6 +4046,9 @@
       <c r="E263" s="9" t="s">
         <v>340</v>
       </c>
+      <c r="F263" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="5">
@@ -4053,6 +4056,9 @@
       </c>
       <c r="E264" s="9" t="s">
         <v>341</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="402">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1637,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E294" sqref="E294"/>
+    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D287" sqref="D287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4082,28 +4082,37 @@
       <c r="E267" s="9" t="s">
         <v>343</v>
       </c>
+      <c r="F267" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="5">
         <v>178</v>
       </c>
-      <c r="E268" s="3" t="s">
+      <c r="E268" s="9" t="s">
         <v>344</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="5">
         <v>179</v>
       </c>
-      <c r="E269" s="3" t="s">
+      <c r="E269" s="9" t="s">
         <v>345</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="5">
         <v>180</v>
       </c>
-      <c r="E270" s="3" t="s">
+      <c r="E270" s="9" t="s">
         <v>346</v>
       </c>
     </row>
@@ -4700,9 +4709,12 @@
     <hyperlink ref="E267" r:id="rId147"/>
     <hyperlink ref="E263" r:id="rId148"/>
     <hyperlink ref="E264" r:id="rId149"/>
+    <hyperlink ref="E268" r:id="rId150"/>
+    <hyperlink ref="E269" r:id="rId151"/>
+    <hyperlink ref="E270" r:id="rId152"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId150"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId153"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="402">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1638,7 +1638,7 @@
   <dimension ref="A2:F333"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A243" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D287" sqref="D287"/>
+      <selection activeCell="D265" sqref="D265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4126,8 +4126,11 @@
       <c r="C272" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E272" s="3" t="s">
+      <c r="E272" s="9" t="s">
         <v>348</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
@@ -4178,7 +4181,7 @@
       <c r="C278" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E278" s="3" t="s">
+      <c r="E278" s="9" t="s">
         <v>354</v>
       </c>
     </row>
@@ -4203,8 +4206,11 @@
       <c r="A281" s="5">
         <v>187</v>
       </c>
-      <c r="E281" s="3" t="s">
+      <c r="E281" s="9" t="s">
         <v>301</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
@@ -4712,9 +4718,12 @@
     <hyperlink ref="E268" r:id="rId150"/>
     <hyperlink ref="E269" r:id="rId151"/>
     <hyperlink ref="E270" r:id="rId152"/>
+    <hyperlink ref="E281" r:id="rId153"/>
+    <hyperlink ref="E278" r:id="rId154"/>
+    <hyperlink ref="E272" r:id="rId155"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId153"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId156"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="402">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1637,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D265" sqref="D265"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D260" sqref="D260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4234,8 +4234,11 @@
       <c r="C286" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E286" s="3" t="s">
+      <c r="E286" s="9" t="s">
         <v>360</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
@@ -4245,16 +4248,22 @@
       <c r="E287" s="3" t="s">
         <v>361</v>
       </c>
+      <c r="F287" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="5">
         <v>191</v>
       </c>
-      <c r="E288" s="3" t="s">
+      <c r="E288" s="9" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F288" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="5">
         <v>192</v>
       </c>
@@ -4264,14 +4273,17 @@
       <c r="C290" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E290" s="3" t="s">
+      <c r="E290" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F290" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E291"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="5">
         <v>193</v>
       </c>
@@ -4288,7 +4300,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="5">
         <v>194</v>
       </c>
@@ -4296,7 +4308,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="5">
         <v>195</v>
       </c>
@@ -4310,7 +4322,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="5">
         <v>196</v>
       </c>
@@ -4318,7 +4330,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="5">
         <v>197</v>
       </c>
@@ -4332,7 +4344,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="5">
         <v>198</v>
       </c>
@@ -4340,7 +4352,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="5">
         <v>199</v>
       </c>
@@ -4348,7 +4360,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="5">
         <v>200</v>
       </c>
@@ -4721,9 +4733,12 @@
     <hyperlink ref="E281" r:id="rId153"/>
     <hyperlink ref="E278" r:id="rId154"/>
     <hyperlink ref="E272" r:id="rId155"/>
+    <hyperlink ref="E286" r:id="rId156"/>
+    <hyperlink ref="E288" r:id="rId157"/>
+    <hyperlink ref="E290" r:id="rId158"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId156"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId159"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="289">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B302" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D314" sqref="D314"/>
+    <sheetView tabSelected="1" topLeftCell="B305" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E328" sqref="E328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3860,16 +3860,22 @@
       <c r="C329" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D329" s="2" t="s">
+      <c r="D329" s="7" t="s">
         <v>16</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="4">
         <v>218</v>
       </c>
-      <c r="D330" s="2" t="s">
+      <c r="D330" s="7" t="s">
         <v>56</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
@@ -3882,7 +3888,7 @@
       <c r="C332" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D332" s="2" t="s">
+      <c r="D332" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4061,9 +4067,12 @@
     <hyperlink ref="D321" r:id="rId163"/>
     <hyperlink ref="D322" r:id="rId164"/>
     <hyperlink ref="D323" r:id="rId165"/>
+    <hyperlink ref="D330" r:id="rId166"/>
+    <hyperlink ref="D332" r:id="rId167"/>
+    <hyperlink ref="D329" r:id="rId168"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId166"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId169"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="289">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B305" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E328" sqref="E328"/>
+    <sheetView tabSelected="1" topLeftCell="A299" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D318" sqref="D318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3830,16 +3830,22 @@
       <c r="C325" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D325" s="2" t="s">
+      <c r="D325" s="7" t="s">
         <v>15</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="4">
         <v>215</v>
       </c>
-      <c r="D326" s="2" t="s">
+      <c r="D326" s="7" t="s">
         <v>282</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
@@ -4070,9 +4076,11 @@
     <hyperlink ref="D330" r:id="rId166"/>
     <hyperlink ref="D332" r:id="rId167"/>
     <hyperlink ref="D329" r:id="rId168"/>
+    <hyperlink ref="D325" r:id="rId169"/>
+    <hyperlink ref="D326" r:id="rId170"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId169"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId171"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="289">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D318" sqref="D318"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D323" sqref="D323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1342,6 +1342,9 @@
       <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
@@ -1350,6 +1353,9 @@
       <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
@@ -1358,6 +1364,9 @@
       <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
@@ -1366,6 +1375,9 @@
       <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
@@ -1754,6 +1766,9 @@
       <c r="D53" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="E53" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
@@ -1762,13 +1777,19 @@
       <c r="D54" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E54" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>38</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="7" t="s">
         <v>57</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -3852,8 +3873,11 @@
       <c r="A327" s="4">
         <v>216</v>
       </c>
-      <c r="D327" s="2" t="s">
+      <c r="D327" s="7" t="s">
         <v>283</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
@@ -4078,9 +4102,11 @@
     <hyperlink ref="D329" r:id="rId168"/>
     <hyperlink ref="D325" r:id="rId169"/>
     <hyperlink ref="D326" r:id="rId170"/>
+    <hyperlink ref="D327" r:id="rId171"/>
+    <hyperlink ref="D55" r:id="rId172"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId171"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId173"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="289">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D323" sqref="D323"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1478,6 +1478,9 @@
       <c r="D19" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
@@ -1575,6 +1578,9 @@
       <c r="D30" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
@@ -1728,6 +1734,9 @@
       <c r="D48" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="E48" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
@@ -1774,7 +1783,7 @@
       <c r="A54" s="4">
         <v>37</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -4104,9 +4113,10 @@
     <hyperlink ref="D326" r:id="rId170"/>
     <hyperlink ref="D327" r:id="rId171"/>
     <hyperlink ref="D55" r:id="rId172"/>
+    <hyperlink ref="D54" r:id="rId173"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId173"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId174"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="289">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2042,6 +2042,9 @@
       <c r="D86" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="E86" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
@@ -2144,6 +2147,9 @@
       <c r="D100" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="E100" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
@@ -2163,13 +2169,19 @@
       <c r="D102" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="E102" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>72</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="7" t="s">
         <v>102</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -2196,6 +2208,9 @@
       <c r="D106" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="E106" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
@@ -2211,6 +2226,9 @@
       </c>
       <c r="D108" s="7" t="s">
         <v>107</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -4114,9 +4132,10 @@
     <hyperlink ref="D327" r:id="rId171"/>
     <hyperlink ref="D55" r:id="rId172"/>
     <hyperlink ref="D54" r:id="rId173"/>
+    <hyperlink ref="D103" r:id="rId174"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId174"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId175"/>
 </worksheet>
 </file>
 

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="289">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2122,6 +2122,9 @@
       <c r="D95" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="E95" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
@@ -2280,6 +2283,9 @@
       <c r="D114" s="7" t="s">
         <v>113</v>
       </c>
+      <c r="E114" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
@@ -2296,6 +2302,9 @@
       <c r="D116" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="E116" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
@@ -2557,6 +2566,9 @@
       </c>
       <c r="D148" s="7" t="s">
         <v>142</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="289">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2517,6 +2517,9 @@
       <c r="D142" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="E142" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
@@ -3052,6 +3055,9 @@
       <c r="D215" s="7" t="s">
         <v>196</v>
       </c>
+      <c r="E215" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="4">
@@ -3060,6 +3066,9 @@
       <c r="D216" s="7" t="s">
         <v>197</v>
       </c>
+      <c r="E216" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="4">
@@ -3082,6 +3091,9 @@
       <c r="D219" s="7" t="s">
         <v>200</v>
       </c>
+      <c r="E219" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="4">
@@ -3960,13 +3972,19 @@
       <c r="D332" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="E332" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="4">
         <v>220</v>
       </c>
-      <c r="D333" s="2" t="s">
+      <c r="D333" s="7" t="s">
         <v>25</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4145,9 +4163,10 @@
     <hyperlink ref="D55" r:id="rId172"/>
     <hyperlink ref="D54" r:id="rId173"/>
     <hyperlink ref="D103" r:id="rId174"/>
+    <hyperlink ref="D333" r:id="rId175"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId175"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId176"/>
 </worksheet>
 </file>
 
